--- a/Team-Data/2020-21/1-3-2020-21.xlsx
+++ b/Team-Data/2020-21/1-3-2020-21.xlsx
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV2" t="n">
         <v>7</v>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="DX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DY2" t="n">
         <v>2</v>
@@ -3049,16 +3049,16 @@
         <v>110.1</v>
       </c>
       <c r="BN3" t="n">
-        <v>111.6</v>
+        <v>111.4</v>
       </c>
       <c r="BO3" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="BP3" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BR3" t="n">
         <v>-0.4</v>
@@ -3073,16 +3073,16 @@
         <v>17.6</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.292</v>
+        <v>0.289</v>
       </c>
       <c r="BW3" t="n">
         <v>0.703</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="BZ3" t="n">
         <v>0.555</v>
@@ -3091,16 +3091,16 @@
         <v>0.577</v>
       </c>
       <c r="CB3" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.14</v>
+        <v>100.29</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.45</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="CE3" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="CF3" t="n">
         <v>0.501</v>
@@ -3121,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="CL3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CM3" t="n">
         <v>24</v>
@@ -3145,10 +3145,10 @@
         <v>26</v>
       </c>
       <c r="CT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CU3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CV3" t="n">
         <v>6</v>
@@ -3157,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="CX3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CY3" t="n">
         <v>15</v>
@@ -3200,10 +3200,10 @@
         <v>0.213</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.292</v>
+        <v>0.289</v>
       </c>
       <c r="DM3" t="n">
         <v>0.552</v>
@@ -3212,7 +3212,7 @@
         <v>0.248</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.162</v>
+        <v>0.164</v>
       </c>
       <c r="DP3" t="n">
         <v>0.297</v>
@@ -3239,7 +3239,7 @@
         <v>27</v>
       </c>
       <c r="DX3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="DY3" t="n">
         <v>7</v>
@@ -3251,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="EB3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EC3" t="n">
         <v>26</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="HJ3" t="n">
         <v>31</v>
@@ -3648,16 +3648,16 @@
         <v>9.4</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="IZ3" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="JA3" t="n">
         <v>23.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="JC3" t="n">
         <v>7.7</v>
@@ -3726,10 +3726,10 @@
         <v>14</v>
       </c>
       <c r="JY3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="JZ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="KA3" t="n">
         <v>11</v>
@@ -7787,7 +7787,7 @@
         <v>17</v>
       </c>
       <c r="CX8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CY8" t="n">
         <v>14</v>
@@ -9386,16 +9386,16 @@
         <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W10" t="n">
         <v>7.7</v>
@@ -9473,7 +9473,7 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -9528,19 +9528,19 @@
         <v>298</v>
       </c>
       <c r="BM10" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="BN10" t="n">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="BO10" t="n">
         <v>110</v>
       </c>
       <c r="BP10" t="n">
-        <v>111.9</v>
+        <v>111.7</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.1</v>
@@ -9549,7 +9549,7 @@
         <v>0.604</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="BU10" t="n">
         <v>16.9</v>
@@ -9558,13 +9558,13 @@
         <v>0.287</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.502</v>
@@ -9576,13 +9576,13 @@
         <v>102.4</v>
       </c>
       <c r="CC10" t="n">
-        <v>100.19</v>
+        <v>100.35</v>
       </c>
       <c r="CD10" t="n">
-        <v>83.48999999999999</v>
+        <v>83.62</v>
       </c>
       <c r="CE10" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="CF10" t="n">
         <v>0.462</v>
@@ -9606,7 +9606,7 @@
         <v>18</v>
       </c>
       <c r="CM10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CN10" t="n">
         <v>24</v>
@@ -9615,7 +9615,7 @@
         <v>14</v>
       </c>
       <c r="CP10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CQ10" t="n">
         <v>20</v>
@@ -9627,10 +9627,10 @@
         <v>15</v>
       </c>
       <c r="CT10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CV10" t="n">
         <v>25</v>
@@ -9682,7 +9682,7 @@
         <v>0.249</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="DL10" t="n">
         <v>0.287</v>
@@ -9697,7 +9697,7 @@
         <v>0.163</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="DQ10" t="n">
         <v>8</v>
@@ -9721,7 +9721,7 @@
         <v>16</v>
       </c>
       <c r="DX10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DY10" t="n">
         <v>8</v>
@@ -9733,7 +9733,7 @@
         <v>23</v>
       </c>
       <c r="EB10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EC10" t="n">
         <v>15</v>
@@ -10000,13 +10000,13 @@
         <v>49.7</v>
       </c>
       <c r="HI10" t="n">
-        <v>111.9</v>
+        <v>111.7</v>
       </c>
       <c r="HJ10" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="HL10" t="n">
         <v>7.7</v>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="HW10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HX10" t="n">
         <v>21</v>
@@ -11458,7 +11458,7 @@
         <v>12</v>
       </c>
       <c r="CM12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CN12" t="n">
         <v>16</v>
@@ -11894,7 +11894,7 @@
         <v>3</v>
       </c>
       <c r="HW12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="HX12" t="n">
         <v>14</v>
@@ -13331,7 +13331,7 @@
         <v>22</v>
       </c>
       <c r="CT14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CU14" t="n">
         <v>9</v>
@@ -15029,7 +15029,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW16" t="n">
         <v>17</v>
@@ -15186,7 +15186,7 @@
         <v>9</v>
       </c>
       <c r="CU16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CV16" t="n">
         <v>26</v>
@@ -15277,7 +15277,7 @@
         <v>28</v>
       </c>
       <c r="DX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DY16" t="n">
         <v>5</v>
@@ -16881,7 +16881,7 @@
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>2</v>
@@ -17949,7 +17949,7 @@
         <v>21</v>
       </c>
       <c r="CP19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CQ19" t="n">
         <v>22</v>
@@ -19468,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="JY20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="JZ20" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         <v>7</v>
       </c>
       <c r="CT25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU25" t="n">
         <v>8</v>
@@ -29049,7 +29049,7 @@
         <v>2</v>
       </c>
       <c r="CL31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CM31" t="n">
         <v>26</v>

--- a/Team-Data/2020-21/1-3-2020-21.xlsx
+++ b/Team-Data/2020-21/1-3-2020-21.xlsx
@@ -811,37 +811,37 @@
         <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
         <v>6</v>
@@ -862,19 +862,19 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX2" t="n">
         <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>22</v>
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -915,127 +915,127 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>43.1</v>
+        <v>42.2</v>
       </c>
       <c r="J3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="M3" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="P3" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.712</v>
+        <v>0.714</v>
       </c>
       <c r="R3" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="W3" t="n">
         <v>11</v>
       </c>
-      <c r="S3" t="n">
-        <v>31</v>
-      </c>
-      <c r="T3" t="n">
-        <v>42</v>
-      </c>
-      <c r="U3" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10</v>
-      </c>
       <c r="X3" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.6</v>
+        <v>109.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS3" t="n">
         <v>29</v>
@@ -1044,28 +1044,28 @@
         <v>24</v>
       </c>
       <c r="AU3" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
         <v>2</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -1097,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.429</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I4" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="J4" t="n">
-        <v>88.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.467</v>
+        <v>0.463</v>
       </c>
       <c r="L4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="M4" t="n">
-        <v>37.6</v>
+        <v>38.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.384</v>
+        <v>0.377</v>
       </c>
       <c r="O4" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.819</v>
+        <v>0.801</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
-        <v>37.9</v>
+        <v>36.8</v>
       </c>
       <c r="T4" t="n">
-        <v>47.4</v>
+        <v>46.8</v>
       </c>
       <c r="U4" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V4" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>118</v>
+        <v>117.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12</v>
       </c>
-      <c r="AF4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>18</v>
-      </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR4" t="n">
         <v>13</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AS4" t="n">
         <v>11</v>
       </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AT4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU4" t="n">
         <v>16</v>
       </c>
-      <c r="AS4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>14</v>
-      </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -1357,52 +1357,52 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>22</v>
       </c>
       <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN5" t="n">
         <v>14</v>
       </c>
-      <c r="AM5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>15</v>
-      </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT5" t="n">
         <v>18</v>
@@ -1411,28 +1411,28 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC5" t="n">
         <v>21</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -1461,151 +1461,151 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L6" t="n">
         <v>12.7</v>
       </c>
       <c r="M6" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="P6" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.801</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="S6" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>23.4</v>
+        <v>24.7</v>
       </c>
       <c r="V6" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.3</v>
+        <v>113.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-7</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>23</v>
       </c>
       <c r="AS6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AY6" t="n">
         <v>11</v>
       </c>
       <c r="AZ6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -1721,28 +1721,28 @@
         <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="n">
         <v>2</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>9</v>
       </c>
       <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
         <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
@@ -1751,13 +1751,13 @@
         <v>30</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
@@ -1769,10 +1769,10 @@
         <v>16</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>25</v>
@@ -1781,13 +1781,13 @@
         <v>1</v>
       </c>
       <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
         <v>10</v>
       </c>
-      <c r="AY7" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>20</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -1825,130 +1825,130 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L8" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
-        <v>38.5</v>
+        <v>37.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.307</v>
+        <v>0.317</v>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P8" t="n">
         <v>27</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.741</v>
+        <v>0.748</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="S8" t="n">
-        <v>33.5</v>
+        <v>34.2</v>
       </c>
       <c r="T8" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U8" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
         <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
         <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1957,28 +1957,28 @@
         <v>30</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>24</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -2007,100 +2007,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I9" t="n">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="J9" t="n">
-        <v>87.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L9" t="n">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>30.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.379</v>
+        <v>0.366</v>
       </c>
       <c r="O9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.729</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="T9" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U9" t="n">
-        <v>28.8</v>
+        <v>27.8</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.5</v>
+        <v>24.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>116</v>
+        <v>114.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
         <v>4</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
@@ -2109,58 +2109,58 @@
         <v>3</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW9" t="n">
         <v>21</v>
       </c>
-      <c r="AN9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AX9" t="n">
         <v>14</v>
       </c>
-      <c r="AP9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU9" t="n">
+      <c r="AY9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA9" t="n">
         <v>2</v>
       </c>
-      <c r="AV9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>3</v>
-      </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -2189,154 +2189,154 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.167</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="J10" t="n">
-        <v>92.5</v>
+        <v>93.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.432</v>
+        <v>0.424</v>
       </c>
       <c r="L10" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="M10" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>0.341</v>
+        <v>0.321</v>
       </c>
       <c r="O10" t="n">
-        <v>17.5</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.761</v>
+        <v>0.735</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T10" t="n">
-        <v>45.7</v>
+        <v>48.4</v>
       </c>
       <c r="U10" t="n">
-        <v>24.2</v>
+        <v>23.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X10" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA10" t="n">
         <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.3</v>
+        <v>108.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>21</v>
       </c>
-      <c r="AO10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>12</v>
-      </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>18</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -2371,115 +2371,115 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>38.5</v>
+        <v>36.4</v>
       </c>
       <c r="J11" t="n">
-        <v>90.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.424</v>
+        <v>0.398</v>
       </c>
       <c r="L11" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="M11" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.317</v>
+        <v>0.306</v>
       </c>
       <c r="O11" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="P11" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.796</v>
+        <v>0.803</v>
       </c>
       <c r="R11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>36.2</v>
+        <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
         <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>113</v>
+        <v>108.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>-10.7</v>
+        <v>-15.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
         <v>1</v>
@@ -2488,16 +2488,16 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AU11" t="n">
         <v>29</v>
@@ -2506,25 +2506,25 @@
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>3</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC11" t="n">
         <v>30</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>29</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -2634,10 +2634,10 @@
         <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2646,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2658,43 +2658,43 @@
         <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN12" t="n">
         <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV12" t="n">
         <v>16</v>
       </c>
-      <c r="AR12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>19</v>
-      </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
         <v>15</v>
@@ -2703,10 +2703,10 @@
         <v>19</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -2813,16 +2813,16 @@
         <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2831,40 +2831,40 @@
         <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>2</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS13" t="n">
         <v>24</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AT13" t="n">
         <v>29</v>
       </c>
-      <c r="AS13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>28</v>
-      </c>
       <c r="AU13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV13" t="n">
         <v>5</v>
@@ -2873,22 +2873,22 @@
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -2917,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2935,76 +2935,76 @@
         <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L14" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
-        <v>34.6</v>
+        <v>35.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.417</v>
+        <v>0.394</v>
       </c>
       <c r="O14" t="n">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="P14" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.3</v>
+        <v>17.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>110.6</v>
+        <v>110.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>9</v>
@@ -3016,46 +3016,46 @@
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3064,13 +3064,13 @@
         <v>27</v>
       </c>
       <c r="BA14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BB14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -3099,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="J15" t="n">
         <v>88.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
       <c r="L15" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="M15" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.406</v>
+        <v>0.418</v>
       </c>
       <c r="O15" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="P15" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.767</v>
+        <v>0.772</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="T15" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="U15" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>16.3</v>
       </c>
       <c r="W15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>117</v>
+        <v>118.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
         <v>1</v>
@@ -3204,52 +3204,52 @@
         <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC15" t="n">
         <v>2</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -3281,157 +3281,157 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H16" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>41.7</v>
+        <v>42.2</v>
       </c>
       <c r="J16" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="O16" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="R16" t="n">
         <v>10.8</v>
       </c>
-      <c r="M16" t="n">
-        <v>34</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="R16" t="n">
-        <v>11.3</v>
-      </c>
       <c r="S16" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="T16" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="U16" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="V16" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X16" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
         <v>18.8</v>
       </c>
-      <c r="AA16" t="n">
-        <v>18.2</v>
-      </c>
       <c r="AB16" t="n">
-        <v>109.3</v>
+        <v>112.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.8</v>
+        <v>-4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="n">
         <v>2</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="n">
         <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT16" t="n">
         <v>9</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>7</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>5</v>
       </c>
       <c r="BA16" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>24</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -3541,28 +3541,28 @@
         <v>-7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3571,13 +3571,13 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>10</v>
@@ -3586,19 +3586,19 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
@@ -3607,16 +3607,16 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -3723,13 +3723,13 @@
         <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -3744,28 +3744,28 @@
         <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
       </c>
       <c r="AM18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18" t="n">
         <v>1</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
@@ -3774,13 +3774,13 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>14</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
         <v>18</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -3827,94 +3827,94 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="J19" t="n">
-        <v>92.3</v>
+        <v>93.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O19" t="n">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
       <c r="P19" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.728</v>
+        <v>0.735</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="T19" t="n">
-        <v>42.3</v>
+        <v>43.6</v>
       </c>
       <c r="U19" t="n">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>18.3</v>
+        <v>19.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.2</v>
+        <v>105.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>-13.3</v>
+        <v>-13</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
         <v>9</v>
@@ -3923,28 +3923,28 @@
         <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP19" t="n">
         <v>27</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3953,34 +3953,34 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AV19" t="n">
         <v>8</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -4087,22 +4087,22 @@
         <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
         <v>28</v>
@@ -4111,7 +4111,7 @@
         <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
         <v>20</v>
@@ -4120,7 +4120,7 @@
         <v>25</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
         <v>3</v>
@@ -4129,7 +4129,7 @@
         <v>28</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>6</v>
@@ -4141,13 +4141,13 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>12</v>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB20" t="n">
         <v>26</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -4269,13 +4269,13 @@
         <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -4284,7 +4284,7 @@
         <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>28</v>
@@ -4293,19 +4293,19 @@
         <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN21" t="n">
         <v>9</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
         <v>19</v>
@@ -4320,13 +4320,13 @@
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV21" t="n">
         <v>27</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>20</v>
@@ -4335,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>15</v>
@@ -4344,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -4451,34 +4451,34 @@
         <v>-6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN22" t="n">
         <v>24</v>
@@ -4487,31 +4487,31 @@
         <v>30</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ22" t="n">
         <v>29</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
@@ -4520,13 +4520,13 @@
         <v>4</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -4633,16 +4633,16 @@
         <v>0.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH23" t="n">
         <v>9</v>
@@ -4654,19 +4654,19 @@
         <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4675,16 +4675,16 @@
         <v>1</v>
       </c>
       <c r="AR23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>3</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>1</v>
@@ -4830,67 +4830,67 @@
         <v>9</v>
       </c>
       <c r="AI24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>26</v>
       </c>
       <c r="AK24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO24" t="n">
         <v>10</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -4919,82 +4919,82 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.714</v>
+        <v>0.833</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>85.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.469</v>
+        <v>0.466</v>
       </c>
       <c r="L25" t="n">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="M25" t="n">
-        <v>36.7</v>
+        <v>37.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.37</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
-        <v>15.1</v>
+        <v>13.8</v>
       </c>
       <c r="P25" t="n">
-        <v>18.4</v>
+        <v>16.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.822</v>
       </c>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U25" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="V25" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W25" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -5003,76 +5003,76 @@
         <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
         <v>12</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB25" t="n">
         <v>22</v>
       </c>
-      <c r="AT25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>16</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>23</v>
-      </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -5101,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I26" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="J26" t="n">
-        <v>92</v>
+        <v>90.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.435</v>
+        <v>0.438</v>
       </c>
       <c r="L26" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="M26" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="O26" t="n">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>23.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="S26" t="n">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="T26" t="n">
-        <v>43.7</v>
+        <v>44.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="V26" t="n">
         <v>11.8</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X26" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>115.5</v>
+        <v>114.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5209,52 +5209,52 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS26" t="n">
         <v>9</v>
       </c>
-      <c r="AR26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>14</v>
-      </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -5361,25 +5361,25 @@
         <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -5394,10 +5394,10 @@
         <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
         <v>22</v>
@@ -5406,22 +5406,22 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5433,7 +5433,7 @@
         <v>17</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>18</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -5465,160 +5465,160 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="J28" t="n">
-        <v>93.5</v>
+        <v>91.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.451</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="M28" t="n">
-        <v>28.7</v>
+        <v>30.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.372</v>
+        <v>0.379</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.775</v>
       </c>
       <c r="R28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>37</v>
+        <v>38.2</v>
       </c>
       <c r="T28" t="n">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
       <c r="U28" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="V28" t="n">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="X28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.2</v>
       </c>
-      <c r="Y28" t="n">
-        <v>7</v>
-      </c>
       <c r="Z28" t="n">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>110.7</v>
+        <v>111</v>
       </c>
       <c r="AC28" t="n">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
         <v>9</v>
       </c>
       <c r="AI28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>7</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>3</v>
-      </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT28" t="n">
         <v>12</v>
       </c>
-      <c r="AO28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ28" t="n">
+      <c r="AU28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB28" t="n">
         <v>14</v>
       </c>
-      <c r="AR28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB28" t="n">
+      <c r="BC28" t="n">
         <v>16</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>23</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -5725,28 +5725,28 @@
         <v>-2.6</v>
       </c>
       <c r="AD29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE29" t="n">
         <v>27</v>
       </c>
-      <c r="AE29" t="n">
-        <v>29</v>
-      </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
       </c>
       <c r="AI29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK29" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>30</v>
       </c>
       <c r="AL29" t="n">
         <v>3</v>
@@ -5755,19 +5755,19 @@
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5776,13 +5776,13 @@
         <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX29" t="n">
         <v>5</v>
@@ -5791,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5800,7 +5800,7 @@
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -5829,148 +5829,148 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>41.2</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.461</v>
+        <v>0.443</v>
       </c>
       <c r="L30" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="O30" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="R30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="V30" t="n">
         <v>15</v>
       </c>
-      <c r="M30" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="P30" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="R30" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="S30" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="U30" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="V30" t="n">
-        <v>15.8</v>
-      </c>
       <c r="W30" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="X30" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>112</v>
+        <v>108.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM30" t="n">
         <v>5</v>
       </c>
-      <c r="AM30" t="n">
-        <v>4</v>
-      </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
         <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY30" t="n">
         <v>18</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>2</v>
@@ -5979,10 +5979,10 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>0.286</v>
+        <v>0.167</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
@@ -6029,76 +6029,76 @@
         <v>43.3</v>
       </c>
       <c r="J31" t="n">
-        <v>91.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="K31" t="n">
-        <v>0.475</v>
+        <v>0.487</v>
       </c>
       <c r="L31" t="n">
         <v>12.3</v>
       </c>
       <c r="M31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O31" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="P31" t="n">
-        <v>26.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R31" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.7</v>
+        <v>42.8</v>
       </c>
       <c r="U31" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="Z31" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="AB31" t="n">
-        <v>118.6</v>
+        <v>117.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH31" t="n">
         <v>9</v>
@@ -6107,64 +6107,64 @@
         <v>4</v>
       </c>
       <c r="AJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP31" t="n">
         <v>8</v>
       </c>
-      <c r="AK31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR31" t="n">
         <v>20</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
       </c>
       <c r="AT31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC31" t="n">
         <v>19</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>17</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2020-21</t>
+          <t>2021-01-03</t>
         </is>
       </c>
     </row>
